--- a/Tables/Sources/gameplay/Battle/BattleWords.xlsx
+++ b/Tables/Sources/gameplay/Battle/BattleWords.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="22230" windowHeight="17180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,13 +49,13 @@
     <t>Battle</t>
   </si>
   <si>
-    <t>%x一巴掌拍在%y脸上，%y的脸立马肿了起来，火辣辣地疼。</t>
-  </si>
-  <si>
-    <t>%x趁%y不注意，偷偷跑到%y背后敲了他一板砖，%y当场昏厥了过去。</t>
-  </si>
-  <si>
-    <t>%x使出一招从天而降的章法，朝%y打了过去，%y一招凌波微步躲了过去。</t>
+    <t>{0}一巴掌拍在{1}脸上，{1}的脸立马肿了起来，火辣辣地疼。</t>
+  </si>
+  <si>
+    <t>{0}趁{1}不注意，偷偷跑到{1}背后敲了他一板砖，{1}当场昏厥了过去。</t>
+  </si>
+  <si>
+    <t>{0}使出一招从天而降的章法，朝{1}打了过去，{1}一招凌波微步躲了过去。</t>
   </si>
   <si>
     <t>Talk</t>
@@ -67,10 +67,10 @@
     <t>End</t>
   </si>
   <si>
-    <t>经过一番血战，%m终于战胜%n。</t>
-  </si>
-  <si>
-    <t>一场大战过后，%m已经全部倒下，%n获得了最终胜利。</t>
+    <t>经过一番血战，{0}终于战胜{1}。</t>
+  </si>
+  <si>
+    <t>一场大战过后，{0}已经全部倒下，{1}获得了最终胜利。</t>
   </si>
 </sst>
 </file>
@@ -78,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -100,6 +100,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -107,14 +114,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,72 +166,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -204,32 +189,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,7 +229,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,13 +258,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,61 +402,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,97 +426,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,38 +470,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,11 +493,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,8 +518,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,10 +539,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -570,145 +570,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1071,18 +1071,18 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="64" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.37272727272727" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.8727272727273" style="2" customWidth="1"/>
+    <col min="3" max="3" width="75.9090909090909" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:3">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:3">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:3">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:3">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>

--- a/Tables/Sources/gameplay/Battle/BattleWords.xlsx
+++ b/Tables/Sources/gameplay/Battle/BattleWords.xlsx
@@ -70,7 +70,7 @@
     <t>经过一番血战，{0}终于战胜{1}。</t>
   </si>
   <si>
-    <t>一场大战过后，{0}已经全部倒下，{1}获得了最终胜利。</t>
+    <t>一场大战过后，{1}已经全部倒下，{0}获得了最终胜利。</t>
   </si>
 </sst>
 </file>
@@ -100,21 +100,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,25 +136,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,13 +152,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,6 +166,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -197,6 +197,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -205,39 +213,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,6 +258,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -265,180 +439,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,6 +463,26 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,26 +511,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,8 +529,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,27 +551,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,16 +582,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -600,16 +600,16 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -618,97 +618,97 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1071,7 +1071,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>

--- a/Tables/Sources/gameplay/Battle/BattleWords.xlsx
+++ b/Tables/Sources/gameplay/Battle/BattleWords.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22230" windowHeight="17180"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
     <t>{0}趁{1}不注意，偷偷跑到{1}背后敲了他一板砖，{1}当场昏厥了过去。</t>
   </si>
   <si>
-    <t>{0}使出一招从天而降的章法，朝{1}打了过去，{1}一招凌波微步躲了过去。</t>
+    <t>{0}使出一招从天而降的掌法，朝{1}打了过去，{1}一招凌波微步躲了过去。</t>
   </si>
   <si>
     <t>Talk</t>
@@ -78,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -106,16 +106,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,28 +174,55 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,79 +236,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,187 +258,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,20 +469,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,31 +564,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,133 +582,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1074,15 +1074,15 @@
       <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="4.37272727272727" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.8727272727273" style="2" customWidth="1"/>
-    <col min="3" max="3" width="75.9090909090909" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="75.9083333333333" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:3">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:3">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:3">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:3">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
